--- a/Ip címek.xlsx
+++ b/Ip címek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1B914F1609AFB780/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vizsgazo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{374B0EB6-5FCD-40A9-86E1-7066930BD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8323624-588B-48B4-9844-3510800B1EE6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA0B725-0C48-4ACD-928F-F1F42F74C667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C8E1D91-6102-4D35-9A76-F2106A82412B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3C8E1D91-6102-4D35-9A76-F2106A82412B}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ip címek</t>
   </si>
@@ -76,85 +66,85 @@
     <t>Maszk</t>
   </si>
   <si>
-    <t>Árjáró</t>
-  </si>
-  <si>
-    <t>Ipari</t>
-  </si>
-  <si>
     <t>192.168.99.0</t>
   </si>
   <si>
     <t>192.168.99.1</t>
   </si>
   <si>
-    <t>Gimi Router</t>
-  </si>
-  <si>
-    <t>G0/1</t>
-  </si>
-  <si>
-    <t>255.255.225.0</t>
-  </si>
-  <si>
-    <t>G0/0</t>
-  </si>
-  <si>
-    <t>G0/2</t>
-  </si>
-  <si>
-    <t>192.168.254.1</t>
-  </si>
-  <si>
-    <t>255.255.255.252</t>
-  </si>
-  <si>
-    <t>S0/3/0</t>
-  </si>
-  <si>
-    <t>192.168.254.4</t>
-  </si>
-  <si>
-    <t>S0/3/1</t>
-  </si>
-  <si>
-    <t>192.168.254.9</t>
-  </si>
-  <si>
-    <t>192.168.254.5</t>
-  </si>
-  <si>
-    <t>Cím</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>192.168.254.0</t>
-  </si>
-  <si>
-    <t>192.168.254.8</t>
-  </si>
-  <si>
-    <t>S0/2/0</t>
-  </si>
-  <si>
-    <t>192.168.254.13</t>
-  </si>
-  <si>
-    <t>192.168.254.12</t>
-  </si>
-  <si>
-    <t>Termek_Router</t>
-  </si>
-  <si>
     <t>Vlan ID</t>
   </si>
   <si>
-    <t>g0/1.20</t>
-  </si>
-  <si>
-    <t>g0/1</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Átjáró</t>
+  </si>
+  <si>
+    <t>VLANOK</t>
+  </si>
+  <si>
+    <t>folyoso</t>
+  </si>
+  <si>
+    <t>GIMI SWITCH</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>192.168.10.2</t>
+  </si>
+  <si>
+    <t>192.168.30.2</t>
+  </si>
+  <si>
+    <t>vlan 99</t>
+  </si>
+  <si>
+    <t>192.168.99.2</t>
+  </si>
+  <si>
+    <t>int g0/1</t>
+  </si>
+  <si>
+    <t>192.168.20.2</t>
+  </si>
+  <si>
+    <t>int g0/2</t>
+  </si>
+  <si>
+    <t>int g0/3</t>
+  </si>
+  <si>
+    <t>int g0/4</t>
+  </si>
+  <si>
+    <t>int g0/24</t>
+  </si>
+  <si>
+    <t>vlan 30</t>
+  </si>
+  <si>
+    <t>trunk all</t>
+  </si>
+  <si>
+    <t>vlan 10</t>
+  </si>
+  <si>
+    <t>trunk - vlan 10,20</t>
+  </si>
+  <si>
+    <t>összes többi</t>
+  </si>
+  <si>
+    <t>vlan 999</t>
+  </si>
+  <si>
+    <t>blackhole</t>
+  </si>
+  <si>
+    <t>SHUTDOWN</t>
   </si>
 </sst>
 </file>
@@ -190,8 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -506,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E04F37-1458-4FC4-A59C-B574D5BDD237}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,12 +516,15 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -536,13 +532,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -559,7 +555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -576,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -593,154 +589,166 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Ip címek.xlsx
+++ b/Ip címek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vizsgazo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA0B725-0C48-4ACD-928F-F1F42F74C667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C3C5F1-F309-4BF6-A7FD-15CF436A02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3C8E1D91-6102-4D35-9A76-F2106A82412B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C8E1D91-6102-4D35-9A76-F2106A82412B}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>Ip címek</t>
   </si>
@@ -66,6 +75,9 @@
     <t>Maszk</t>
   </si>
   <si>
+    <t>Árjáró</t>
+  </si>
+  <si>
     <t>192.168.99.0</t>
   </si>
   <si>
@@ -75,40 +87,40 @@
     <t>Vlan ID</t>
   </si>
   <si>
+    <t>Vlanok</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Átjáró</t>
-  </si>
-  <si>
-    <t>VLANOK</t>
+    <t>blackhole</t>
+  </si>
+  <si>
+    <t>SHUTDOWN</t>
+  </si>
+  <si>
+    <t>GIMI SWITCH</t>
   </si>
   <si>
     <t>folyoso</t>
   </si>
   <si>
-    <t>GIMI SWITCH</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>192.168.10.2</t>
-  </si>
-  <si>
-    <t>192.168.30.2</t>
-  </si>
-  <si>
-    <t>vlan 99</t>
-  </si>
-  <si>
-    <t>192.168.99.2</t>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>maszk</t>
+  </si>
+  <si>
+    <t>átjáró</t>
+  </si>
+  <si>
+    <t>192.168.20.2</t>
   </si>
   <si>
     <t>int g0/1</t>
   </si>
   <si>
-    <t>192.168.20.2</t>
+    <t>195.199.250.84</t>
   </si>
   <si>
     <t>int g0/2</t>
@@ -123,15 +135,12 @@
     <t>int g0/24</t>
   </si>
   <si>
+    <t>vlan 10</t>
+  </si>
+  <si>
     <t>vlan 30</t>
   </si>
   <si>
-    <t>trunk all</t>
-  </si>
-  <si>
-    <t>vlan 10</t>
-  </si>
-  <si>
     <t>trunk - vlan 10,20</t>
   </si>
   <si>
@@ -141,10 +150,79 @@
     <t>vlan 999</t>
   </si>
   <si>
-    <t>blackhole</t>
-  </si>
-  <si>
-    <t>SHUTDOWN</t>
+    <t>6osterem</t>
+  </si>
+  <si>
+    <t>vlan</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>192.168.99.250</t>
+  </si>
+  <si>
+    <t>etherchannel</t>
+  </si>
+  <si>
+    <t>Tanulo</t>
+  </si>
+  <si>
+    <t>Tanár</t>
+  </si>
+  <si>
+    <t>int g0/3-20</t>
+  </si>
+  <si>
+    <t>int g0/21-22</t>
+  </si>
+  <si>
+    <t>többi</t>
+  </si>
+  <si>
+    <t>7esterem</t>
+  </si>
+  <si>
+    <t>192.168.99.251</t>
+  </si>
+  <si>
+    <t>int g0/23-24</t>
+  </si>
+  <si>
+    <t>int g0/2-20</t>
+  </si>
+  <si>
+    <t>8esterem</t>
+  </si>
+  <si>
+    <t>192.168.99.252</t>
+  </si>
+  <si>
+    <t>Titkarsag</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>int g0/2-3</t>
+  </si>
+  <si>
+    <t>Titkarsa</t>
+  </si>
+  <si>
+    <t>192.168.99.253</t>
+  </si>
+  <si>
+    <t>Tanari</t>
+  </si>
+  <si>
+    <t>tanar</t>
+  </si>
+  <si>
+    <t>192.168.99.254</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
   </si>
 </sst>
 </file>
@@ -180,11 +258,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -499,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E04F37-1458-4FC4-A59C-B574D5BDD237}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +598,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -532,10 +607,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,16 +666,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>99</v>
@@ -608,10 +683,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>999</v>
@@ -619,21 +694,21 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -649,14 +724,13 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -667,88 +741,390 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
       <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
